--- a/周数据/《实施上线数据统计表》-经旺平.xlsx
+++ b/周数据/《实施上线数据统计表》-经旺平.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -222,6 +222,12 @@
     <t>杨土元</t>
   </si>
   <si>
+    <t>镇江</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（丹阳店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -293,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -433,10 +439,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,8 +454,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,68 +562,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,38 +571,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,13 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +694,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,19 +742,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,55 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,6 +1296,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1301,6 +1316,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,26 +1359,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,26 +1388,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1395,10 +1401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1407,133 +1413,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1635,9 +1641,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1652,6 +1655,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -16118,7 +16124,7 @@
   <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -16185,8 +16191,8 @@
       </c>
     </row>
     <row r="2" s="28" customFormat="1" ht="14.25" spans="1:17">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -16196,7 +16202,7 @@
       <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="1">
@@ -16230,8 +16236,8 @@
       <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -16273,8 +16279,8 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -16316,8 +16322,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -16359,18 +16365,18 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1">
@@ -16388,16 +16394,16 @@
       <c r="K6" s="1">
         <v>15195577630</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="34">
         <v>15651711970</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16405,7 +16411,7 @@
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>43234</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -16450,7 +16456,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="21"/>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>43235</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -16495,7 +16501,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8"/>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>43236</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -16542,7 +16548,7 @@
       <c r="A10" s="11">
         <v>21</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>43241</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -16554,7 +16560,7 @@
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="1">
@@ -16589,7 +16595,7 @@
       <c r="A11" s="21">
         <v>22</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>43244</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -16601,7 +16607,7 @@
       <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="1">
@@ -16634,7 +16640,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="21"/>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>43244</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -16646,10 +16652,10 @@
       <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>76173857</v>
       </c>
       <c r="H12" t="s">
@@ -16679,7 +16685,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7"/>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>43248</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -16688,16 +16694,16 @@
       <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>76175399</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -16723,31 +16729,61 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="37">
+        <v>23</v>
+      </c>
+      <c r="B14" s="35">
+        <v>43256</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="36">
+        <v>76178939</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15195577630</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="11"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="34"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -16760,8 +16796,8 @@
       <c r="A16" s="1"/>
       <c r="B16" s="11"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="11"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
@@ -16777,8 +16813,8 @@
       <c r="A17" s="1"/>
       <c r="B17" s="11"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="11"/>
       <c r="G17" s="38"/>
       <c r="H17" s="39"/>
@@ -16794,8 +16830,8 @@
       <c r="A18" s="1"/>
       <c r="B18" s="11"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="11"/>
       <c r="G18" s="38"/>
       <c r="H18" s="39"/>
@@ -16811,8 +16847,8 @@
       <c r="A19" s="1"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="11"/>
       <c r="G19" s="38"/>
       <c r="H19" s="40"/>
@@ -16828,11 +16864,11 @@
       <c r="A20" s="1"/>
       <c r="B20" s="11"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -16845,11 +16881,11 @@
       <c r="A21" s="1"/>
       <c r="B21" s="11"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="34"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -16862,11 +16898,11 @@
       <c r="A22" s="1"/>
       <c r="B22" s="11"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -16879,11 +16915,11 @@
       <c r="A23" s="1"/>
       <c r="B23" s="11"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -16896,11 +16932,11 @@
       <c r="A24" s="1"/>
       <c r="B24" s="11"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -16913,11 +16949,11 @@
       <c r="A25" s="1"/>
       <c r="B25" s="11"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -16930,11 +16966,11 @@
       <c r="A26" s="1"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -16947,11 +16983,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="34"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -16964,11 +17000,11 @@
       <c r="A28" s="1"/>
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="34"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -16981,11 +17017,11 @@
       <c r="A29" s="1"/>
       <c r="B29" s="11"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -16998,11 +17034,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="11"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="34"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -17015,11 +17051,11 @@
       <c r="A31" s="1"/>
       <c r="B31" s="11"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="34"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -17032,11 +17068,11 @@
       <c r="A32" s="1"/>
       <c r="B32" s="11"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="34"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -17049,11 +17085,11 @@
       <c r="A33" s="1"/>
       <c r="B33" s="11"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="34"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -17066,11 +17102,11 @@
       <c r="A34" s="1"/>
       <c r="B34" s="11"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="34"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -17083,11 +17119,11 @@
       <c r="A35" s="1"/>
       <c r="B35" s="11"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -17100,11 +17136,11 @@
       <c r="A36" s="1"/>
       <c r="B36" s="11"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="34"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -17117,11 +17153,11 @@
       <c r="A37" s="1"/>
       <c r="B37" s="11"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="34"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -17134,11 +17170,11 @@
       <c r="A38" s="1"/>
       <c r="B38" s="11"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="34"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -17151,11 +17187,11 @@
       <c r="A39" s="1"/>
       <c r="B39" s="11"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="34"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -17168,11 +17204,11 @@
       <c r="A40" s="1"/>
       <c r="B40" s="11"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="34"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -17185,11 +17221,11 @@
       <c r="A41" s="1"/>
       <c r="B41" s="11"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="34"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -17202,11 +17238,11 @@
       <c r="A42" s="1"/>
       <c r="B42" s="11"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="34"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -17219,11 +17255,11 @@
       <c r="A43" s="1"/>
       <c r="B43" s="11"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="34"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -17236,11 +17272,11 @@
       <c r="A44" s="1"/>
       <c r="B44" s="11"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="34"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -17253,11 +17289,11 @@
       <c r="A45" s="1"/>
       <c r="B45" s="11"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="34"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -17270,11 +17306,11 @@
       <c r="A46" s="1"/>
       <c r="B46" s="11"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="34"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -17287,11 +17323,11 @@
       <c r="A47" s="1"/>
       <c r="B47" s="11"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="34"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -17304,11 +17340,11 @@
       <c r="A48" s="1"/>
       <c r="B48" s="11"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="34"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -17321,11 +17357,11 @@
       <c r="A49" s="1"/>
       <c r="B49" s="11"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="34"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -17338,11 +17374,11 @@
       <c r="A50" s="1"/>
       <c r="B50" s="11"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="34"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -17355,11 +17391,11 @@
       <c r="A51" s="1"/>
       <c r="B51" s="11"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="34"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -17372,11 +17408,11 @@
       <c r="A52" s="1"/>
       <c r="B52" s="11"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="34"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -17389,11 +17425,11 @@
       <c r="A53" s="1"/>
       <c r="B53" s="11"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="34"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -17406,11 +17442,11 @@
       <c r="A54" s="1"/>
       <c r="B54" s="11"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="34"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -17423,11 +17459,11 @@
       <c r="A55" s="1"/>
       <c r="B55" s="11"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="34"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -17440,11 +17476,11 @@
       <c r="A56" s="1"/>
       <c r="B56" s="11"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="34"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -17457,11 +17493,11 @@
       <c r="A57" s="1"/>
       <c r="B57" s="11"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="34"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -17474,11 +17510,11 @@
       <c r="A58" s="1"/>
       <c r="B58" s="11"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="34"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -17491,11 +17527,11 @@
       <c r="A59" s="1"/>
       <c r="B59" s="11"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="34"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -17508,11 +17544,11 @@
       <c r="A60" s="1"/>
       <c r="B60" s="11"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="34"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -17525,11 +17561,11 @@
       <c r="A61" s="1"/>
       <c r="B61" s="11"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="34"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -17542,11 +17578,11 @@
       <c r="A62" s="1"/>
       <c r="B62" s="11"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="34"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -17559,11 +17595,11 @@
       <c r="A63" s="1"/>
       <c r="B63" s="11"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="34"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -17576,11 +17612,11 @@
       <c r="A64" s="1"/>
       <c r="B64" s="11"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="34"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -17593,11 +17629,11 @@
       <c r="A65" s="1"/>
       <c r="B65" s="11"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="34"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -17610,11 +17646,11 @@
       <c r="A66" s="1"/>
       <c r="B66" s="11"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="34"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -17627,11 +17663,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="11"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="34"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -17644,11 +17680,11 @@
       <c r="A68" s="1"/>
       <c r="B68" s="11"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="34"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -17661,11 +17697,11 @@
       <c r="A69" s="1"/>
       <c r="B69" s="11"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="34"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -17678,11 +17714,11 @@
       <c r="A70" s="1"/>
       <c r="B70" s="11"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="34"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -17695,11 +17731,11 @@
       <c r="A71" s="1"/>
       <c r="B71" s="11"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="34"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -17712,11 +17748,11 @@
       <c r="A72" s="1"/>
       <c r="B72" s="11"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="34"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -17729,11 +17765,11 @@
       <c r="A73" s="1"/>
       <c r="B73" s="11"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="34"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -17746,11 +17782,11 @@
       <c r="A74" s="1"/>
       <c r="B74" s="11"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
-      <c r="H74" s="34"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -17763,11 +17799,11 @@
       <c r="A75" s="1"/>
       <c r="B75" s="11"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="34"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -17780,11 +17816,11 @@
       <c r="A76" s="1"/>
       <c r="B76" s="11"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="34"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -17797,11 +17833,11 @@
       <c r="A77" s="1"/>
       <c r="B77" s="11"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="34"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -17814,11 +17850,11 @@
       <c r="A78" s="1"/>
       <c r="B78" s="11"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="34"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -17831,11 +17867,11 @@
       <c r="A79" s="1"/>
       <c r="B79" s="11"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="34"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -17848,11 +17884,11 @@
       <c r="A80" s="1"/>
       <c r="B80" s="11"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="34"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -17865,11 +17901,11 @@
       <c r="A81" s="1"/>
       <c r="B81" s="11"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="34"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -17882,11 +17918,11 @@
       <c r="A82" s="1"/>
       <c r="B82" s="11"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="34"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -17899,11 +17935,11 @@
       <c r="A83" s="1"/>
       <c r="B83" s="11"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="34"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -17916,11 +17952,11 @@
       <c r="A84" s="1"/>
       <c r="B84" s="11"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="34"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -17933,11 +17969,11 @@
       <c r="A85" s="1"/>
       <c r="B85" s="11"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="34"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -17950,11 +17986,11 @@
       <c r="A86" s="1"/>
       <c r="B86" s="11"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="34"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -17967,11 +18003,11 @@
       <c r="A87" s="1"/>
       <c r="B87" s="11"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="34"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -17984,11 +18020,11 @@
       <c r="A88" s="1"/>
       <c r="B88" s="11"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="34"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -18001,11 +18037,11 @@
       <c r="A89" s="1"/>
       <c r="B89" s="11"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="34"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -18018,11 +18054,11 @@
       <c r="A90" s="1"/>
       <c r="B90" s="11"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="34"/>
+      <c r="H90" s="33"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -18035,11 +18071,11 @@
       <c r="A91" s="1"/>
       <c r="B91" s="11"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="34"/>
+      <c r="H91" s="33"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -18052,11 +18088,11 @@
       <c r="A92" s="1"/>
       <c r="B92" s="11"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="34"/>
+      <c r="H92" s="33"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -18069,11 +18105,11 @@
       <c r="A93" s="1"/>
       <c r="B93" s="11"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="34"/>
+      <c r="H93" s="33"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -18086,11 +18122,11 @@
       <c r="A94" s="1"/>
       <c r="B94" s="11"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="34"/>
+      <c r="H94" s="33"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -18103,11 +18139,11 @@
       <c r="A95" s="1"/>
       <c r="B95" s="11"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="34"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -18120,11 +18156,11 @@
       <c r="A96" s="1"/>
       <c r="B96" s="11"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="34"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -18137,11 +18173,11 @@
       <c r="A97" s="1"/>
       <c r="B97" s="11"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="34"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -18154,11 +18190,11 @@
       <c r="A98" s="1"/>
       <c r="B98" s="11"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
-      <c r="H98" s="34"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -18171,11 +18207,11 @@
       <c r="A99" s="1"/>
       <c r="B99" s="11"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="34"/>
+      <c r="H99" s="33"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -18188,11 +18224,11 @@
       <c r="A100" s="1"/>
       <c r="B100" s="11"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="34"/>
+      <c r="H100" s="33"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -18205,11 +18241,11 @@
       <c r="A101" s="1"/>
       <c r="B101" s="11"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="34"/>
+      <c r="H101" s="33"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -18222,11 +18258,11 @@
       <c r="A102" s="1"/>
       <c r="B102" s="11"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="34"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -18239,11 +18275,11 @@
       <c r="A103" s="1"/>
       <c r="B103" s="11"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="34"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -18256,11 +18292,11 @@
       <c r="A104" s="1"/>
       <c r="B104" s="11"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="34"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -18273,11 +18309,11 @@
       <c r="A105" s="1"/>
       <c r="B105" s="11"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="34"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -18290,11 +18326,11 @@
       <c r="A106" s="1"/>
       <c r="B106" s="11"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="34"/>
+      <c r="H106" s="33"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -18307,11 +18343,11 @@
       <c r="A107" s="1"/>
       <c r="B107" s="11"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
-      <c r="H107" s="34"/>
+      <c r="H107" s="33"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -18324,11 +18360,11 @@
       <c r="A108" s="1"/>
       <c r="B108" s="11"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="34"/>
+      <c r="H108" s="33"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -18341,11 +18377,11 @@
       <c r="A109" s="1"/>
       <c r="B109" s="11"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="34"/>
+      <c r="H109" s="33"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -18358,11 +18394,11 @@
       <c r="A110" s="1"/>
       <c r="B110" s="11"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="34"/>
+      <c r="H110" s="33"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -18375,11 +18411,11 @@
       <c r="A111" s="1"/>
       <c r="B111" s="11"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="34"/>
+      <c r="H111" s="33"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -18392,11 +18428,11 @@
       <c r="A112" s="1"/>
       <c r="B112" s="11"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="34"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -18409,11 +18445,11 @@
       <c r="A113" s="1"/>
       <c r="B113" s="11"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="34"/>
+      <c r="H113" s="33"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -18426,11 +18462,11 @@
       <c r="A114" s="1"/>
       <c r="B114" s="11"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="34"/>
+      <c r="H114" s="33"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -18443,11 +18479,11 @@
       <c r="A115" s="1"/>
       <c r="B115" s="11"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="34"/>
+      <c r="H115" s="33"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -18460,11 +18496,11 @@
       <c r="A116" s="1"/>
       <c r="B116" s="11"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="34"/>
+      <c r="H116" s="33"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -18477,11 +18513,11 @@
       <c r="A117" s="1"/>
       <c r="B117" s="11"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="34"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -18494,11 +18530,11 @@
       <c r="A118" s="1"/>
       <c r="B118" s="11"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="34"/>
+      <c r="H118" s="33"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -18511,11 +18547,11 @@
       <c r="A119" s="1"/>
       <c r="B119" s="11"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="34"/>
+      <c r="H119" s="33"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -18528,11 +18564,11 @@
       <c r="A120" s="1"/>
       <c r="B120" s="11"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="34"/>
+      <c r="H120" s="33"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -18545,11 +18581,11 @@
       <c r="A121" s="1"/>
       <c r="B121" s="11"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="34"/>
+      <c r="H121" s="33"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -18562,11 +18598,11 @@
       <c r="A122" s="1"/>
       <c r="B122" s="11"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="34"/>
+      <c r="H122" s="33"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -18579,11 +18615,11 @@
       <c r="A123" s="1"/>
       <c r="B123" s="11"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="34"/>
+      <c r="H123" s="33"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -18596,11 +18632,11 @@
       <c r="A124" s="1"/>
       <c r="B124" s="11"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="34"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -18613,11 +18649,11 @@
       <c r="A125" s="1"/>
       <c r="B125" s="11"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="34"/>
+      <c r="H125" s="33"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -18630,11 +18666,11 @@
       <c r="A126" s="1"/>
       <c r="B126" s="11"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="34"/>
+      <c r="H126" s="33"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -18647,11 +18683,11 @@
       <c r="A127" s="1"/>
       <c r="B127" s="11"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="34"/>
+      <c r="H127" s="33"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -18664,11 +18700,11 @@
       <c r="A128" s="1"/>
       <c r="B128" s="11"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="34"/>
+      <c r="H128" s="33"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -18681,11 +18717,11 @@
       <c r="A129" s="1"/>
       <c r="B129" s="11"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="34"/>
+      <c r="H129" s="33"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -18698,11 +18734,11 @@
       <c r="A130" s="1"/>
       <c r="B130" s="11"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
-      <c r="H130" s="34"/>
+      <c r="H130" s="33"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -18715,11 +18751,11 @@
       <c r="A131" s="1"/>
       <c r="B131" s="11"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="34"/>
+      <c r="H131" s="33"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -18732,11 +18768,11 @@
       <c r="A132" s="1"/>
       <c r="B132" s="11"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="34"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -18749,11 +18785,11 @@
       <c r="A133" s="1"/>
       <c r="B133" s="11"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="34"/>
+      <c r="H133" s="33"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -18766,11 +18802,11 @@
       <c r="A134" s="1"/>
       <c r="B134" s="11"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
-      <c r="H134" s="34"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -18783,11 +18819,11 @@
       <c r="A135" s="1"/>
       <c r="B135" s="11"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
-      <c r="H135" s="34"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -18800,11 +18836,11 @@
       <c r="A136" s="1"/>
       <c r="B136" s="11"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="34"/>
+      <c r="H136" s="33"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -18817,11 +18853,11 @@
       <c r="A137" s="1"/>
       <c r="B137" s="11"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="34"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -18834,11 +18870,11 @@
       <c r="A138" s="1"/>
       <c r="B138" s="11"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="34"/>
+      <c r="H138" s="33"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -18851,11 +18887,11 @@
       <c r="A139" s="1"/>
       <c r="B139" s="11"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
-      <c r="H139" s="34"/>
+      <c r="H139" s="33"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -18868,11 +18904,11 @@
       <c r="A140" s="1"/>
       <c r="B140" s="11"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="34"/>
+      <c r="H140" s="33"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -18885,11 +18921,11 @@
       <c r="A141" s="1"/>
       <c r="B141" s="11"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
-      <c r="H141" s="34"/>
+      <c r="H141" s="33"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -18902,11 +18938,11 @@
       <c r="A142" s="1"/>
       <c r="B142" s="11"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="34"/>
+      <c r="H142" s="33"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -18919,11 +18955,11 @@
       <c r="A143" s="1"/>
       <c r="B143" s="11"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="34"/>
+      <c r="H143" s="33"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -18936,11 +18972,11 @@
       <c r="A144" s="1"/>
       <c r="B144" s="11"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="34"/>
+      <c r="H144" s="33"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -18953,11 +18989,11 @@
       <c r="A145" s="1"/>
       <c r="B145" s="11"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="34"/>
+      <c r="H145" s="33"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -18970,11 +19006,11 @@
       <c r="A146" s="1"/>
       <c r="B146" s="11"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="34"/>
+      <c r="H146" s="33"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -18987,11 +19023,11 @@
       <c r="A147" s="1"/>
       <c r="B147" s="11"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="34"/>
+      <c r="H147" s="33"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -19004,11 +19040,11 @@
       <c r="A148" s="1"/>
       <c r="B148" s="11"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="34"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -19021,11 +19057,11 @@
       <c r="A149" s="1"/>
       <c r="B149" s="11"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="34"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -19038,11 +19074,11 @@
       <c r="A150" s="1"/>
       <c r="B150" s="11"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="34"/>
+      <c r="H150" s="33"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -19055,11 +19091,11 @@
       <c r="A151" s="1"/>
       <c r="B151" s="11"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="34"/>
+      <c r="H151" s="33"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -19072,11 +19108,11 @@
       <c r="A152" s="1"/>
       <c r="B152" s="11"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="34"/>
+      <c r="H152" s="33"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -19089,11 +19125,11 @@
       <c r="A153" s="1"/>
       <c r="B153" s="11"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
-      <c r="H153" s="34"/>
+      <c r="H153" s="33"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -19106,11 +19142,11 @@
       <c r="A154" s="1"/>
       <c r="B154" s="11"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="34"/>
+      <c r="H154" s="33"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -19123,11 +19159,11 @@
       <c r="A155" s="1"/>
       <c r="B155" s="11"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="34"/>
+      <c r="H155" s="33"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -19140,11 +19176,11 @@
       <c r="A156" s="1"/>
       <c r="B156" s="11"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="34"/>
+      <c r="H156" s="33"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -19157,11 +19193,11 @@
       <c r="A157" s="1"/>
       <c r="B157" s="11"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="34"/>
+      <c r="H157" s="33"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -19174,11 +19210,11 @@
       <c r="A158" s="1"/>
       <c r="B158" s="11"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="34"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="34"/>
+      <c r="H158" s="33"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -19191,11 +19227,11 @@
       <c r="A159" s="1"/>
       <c r="B159" s="11"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
-      <c r="H159" s="34"/>
+      <c r="H159" s="33"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -19208,11 +19244,11 @@
       <c r="A160" s="1"/>
       <c r="B160" s="11"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="34"/>
-      <c r="E160" s="34"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
-      <c r="H160" s="34"/>
+      <c r="H160" s="33"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -19225,11 +19261,11 @@
       <c r="A161" s="1"/>
       <c r="B161" s="11"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="34"/>
-      <c r="E161" s="34"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="34"/>
+      <c r="H161" s="33"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -19242,11 +19278,11 @@
       <c r="A162" s="1"/>
       <c r="B162" s="11"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="34"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
-      <c r="H162" s="34"/>
+      <c r="H162" s="33"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -19259,11 +19295,11 @@
       <c r="A163" s="1"/>
       <c r="B163" s="11"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="34"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
-      <c r="H163" s="34"/>
+      <c r="H163" s="33"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -19276,11 +19312,11 @@
       <c r="A164" s="1"/>
       <c r="B164" s="11"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="34"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
-      <c r="H164" s="34"/>
+      <c r="H164" s="33"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -19293,11 +19329,11 @@
       <c r="A165" s="1"/>
       <c r="B165" s="11"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="34"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
-      <c r="H165" s="34"/>
+      <c r="H165" s="33"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -19310,11 +19346,11 @@
       <c r="A166" s="1"/>
       <c r="B166" s="11"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="34"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
-      <c r="H166" s="34"/>
+      <c r="H166" s="33"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -19327,11 +19363,11 @@
       <c r="A167" s="1"/>
       <c r="B167" s="11"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="34"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
-      <c r="H167" s="34"/>
+      <c r="H167" s="33"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -19344,11 +19380,11 @@
       <c r="A168" s="1"/>
       <c r="B168" s="11"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
-      <c r="H168" s="34"/>
+      <c r="H168" s="33"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -19361,11 +19397,11 @@
       <c r="A169" s="1"/>
       <c r="B169" s="11"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
-      <c r="H169" s="34"/>
+      <c r="H169" s="33"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -19378,11 +19414,11 @@
       <c r="A170" s="1"/>
       <c r="B170" s="11"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="34"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
-      <c r="H170" s="34"/>
+      <c r="H170" s="33"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -19395,11 +19431,11 @@
       <c r="A171" s="1"/>
       <c r="B171" s="11"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
-      <c r="H171" s="34"/>
+      <c r="H171" s="33"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -19412,11 +19448,11 @@
       <c r="A172" s="1"/>
       <c r="B172" s="11"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="34"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
-      <c r="H172" s="34"/>
+      <c r="H172" s="33"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -19429,11 +19465,11 @@
       <c r="A173" s="1"/>
       <c r="B173" s="11"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
-      <c r="H173" s="34"/>
+      <c r="H173" s="33"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -19446,11 +19482,11 @@
       <c r="A174" s="1"/>
       <c r="B174" s="11"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="34"/>
-      <c r="E174" s="34"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
-      <c r="H174" s="34"/>
+      <c r="H174" s="33"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -19463,11 +19499,11 @@
       <c r="A175" s="1"/>
       <c r="B175" s="11"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="34"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
-      <c r="H175" s="34"/>
+      <c r="H175" s="33"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -19480,11 +19516,11 @@
       <c r="A176" s="1"/>
       <c r="B176" s="11"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="34"/>
-      <c r="E176" s="34"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
-      <c r="H176" s="34"/>
+      <c r="H176" s="33"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -19497,11 +19533,11 @@
       <c r="A177" s="1"/>
       <c r="B177" s="11"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="34"/>
-      <c r="E177" s="34"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
-      <c r="H177" s="34"/>
+      <c r="H177" s="33"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -19514,11 +19550,11 @@
       <c r="A178" s="1"/>
       <c r="B178" s="11"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="34"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
-      <c r="H178" s="34"/>
+      <c r="H178" s="33"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -19531,11 +19567,11 @@
       <c r="A179" s="1"/>
       <c r="B179" s="11"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="34"/>
-      <c r="E179" s="34"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
-      <c r="H179" s="34"/>
+      <c r="H179" s="33"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -19548,11 +19584,11 @@
       <c r="A180" s="1"/>
       <c r="B180" s="11"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="34"/>
-      <c r="E180" s="34"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
-      <c r="H180" s="34"/>
+      <c r="H180" s="33"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -19565,11 +19601,11 @@
       <c r="A181" s="1"/>
       <c r="B181" s="11"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
-      <c r="H181" s="34"/>
+      <c r="H181" s="33"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -19582,11 +19618,11 @@
       <c r="A182" s="1"/>
       <c r="B182" s="11"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="34"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
-      <c r="H182" s="34"/>
+      <c r="H182" s="33"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -19599,11 +19635,11 @@
       <c r="A183" s="1"/>
       <c r="B183" s="11"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="34"/>
-      <c r="E183" s="34"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
-      <c r="H183" s="34"/>
+      <c r="H183" s="33"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -19616,11 +19652,11 @@
       <c r="A184" s="1"/>
       <c r="B184" s="11"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="34"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
-      <c r="H184" s="34"/>
+      <c r="H184" s="33"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -19633,11 +19669,11 @@
       <c r="A185" s="1"/>
       <c r="B185" s="11"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="34"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
-      <c r="H185" s="34"/>
+      <c r="H185" s="33"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -19650,11 +19686,11 @@
       <c r="A186" s="1"/>
       <c r="B186" s="11"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="34"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
-      <c r="H186" s="34"/>
+      <c r="H186" s="33"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -19667,11 +19703,11 @@
       <c r="A187" s="1"/>
       <c r="B187" s="11"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="34"/>
-      <c r="E187" s="34"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
-      <c r="H187" s="34"/>
+      <c r="H187" s="33"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -19684,11 +19720,11 @@
       <c r="A188" s="1"/>
       <c r="B188" s="11"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="34"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
-      <c r="H188" s="34"/>
+      <c r="H188" s="33"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -19701,11 +19737,11 @@
       <c r="A189" s="1"/>
       <c r="B189" s="11"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="34"/>
-      <c r="E189" s="34"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
-      <c r="H189" s="34"/>
+      <c r="H189" s="33"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -19718,11 +19754,11 @@
       <c r="A190" s="1"/>
       <c r="B190" s="11"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="34"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
-      <c r="H190" s="34"/>
+      <c r="H190" s="33"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -19735,11 +19771,11 @@
       <c r="A191" s="1"/>
       <c r="B191" s="11"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="34"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
-      <c r="H191" s="34"/>
+      <c r="H191" s="33"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -19752,11 +19788,11 @@
       <c r="A192" s="1"/>
       <c r="B192" s="11"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
-      <c r="H192" s="34"/>
+      <c r="H192" s="33"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -19769,11 +19805,11 @@
       <c r="A193" s="1"/>
       <c r="B193" s="11"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
-      <c r="H193" s="34"/>
+      <c r="H193" s="33"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -19786,11 +19822,11 @@
       <c r="A194" s="1"/>
       <c r="B194" s="11"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
-      <c r="H194" s="34"/>
+      <c r="H194" s="33"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -19803,11 +19839,11 @@
       <c r="A195" s="1"/>
       <c r="B195" s="11"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
-      <c r="H195" s="34"/>
+      <c r="H195" s="33"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -19820,11 +19856,11 @@
       <c r="A196" s="1"/>
       <c r="B196" s="11"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="34"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="33"/>
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
-      <c r="H196" s="34"/>
+      <c r="H196" s="33"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -19837,11 +19873,11 @@
       <c r="A197" s="1"/>
       <c r="B197" s="11"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="34"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="33"/>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
-      <c r="H197" s="34"/>
+      <c r="H197" s="33"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -19854,11 +19890,11 @@
       <c r="A198" s="1"/>
       <c r="B198" s="11"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="34"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
-      <c r="H198" s="34"/>
+      <c r="H198" s="33"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -19871,11 +19907,11 @@
       <c r="A199" s="1"/>
       <c r="B199" s="11"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="34"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33"/>
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
-      <c r="H199" s="34"/>
+      <c r="H199" s="33"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -19888,11 +19924,11 @@
       <c r="A200" s="1"/>
       <c r="B200" s="11"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="34"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
-      <c r="H200" s="34"/>
+      <c r="H200" s="33"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -19905,11 +19941,11 @@
       <c r="A201" s="1"/>
       <c r="B201" s="11"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="34"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
-      <c r="H201" s="34"/>
+      <c r="H201" s="33"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -19922,11 +19958,11 @@
       <c r="A202" s="1"/>
       <c r="B202" s="11"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="34"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
-      <c r="H202" s="34"/>
+      <c r="H202" s="33"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -19939,11 +19975,11 @@
       <c r="A203" s="1"/>
       <c r="B203" s="11"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
-      <c r="H203" s="34"/>
+      <c r="H203" s="33"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -19956,11 +19992,11 @@
       <c r="A204" s="1"/>
       <c r="B204" s="11"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="34"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
-      <c r="H204" s="34"/>
+      <c r="H204" s="33"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -19973,11 +20009,11 @@
       <c r="A205" s="1"/>
       <c r="B205" s="11"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="34"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
-      <c r="H205" s="34"/>
+      <c r="H205" s="33"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -19990,11 +20026,11 @@
       <c r="A206" s="1"/>
       <c r="B206" s="11"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="34"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
-      <c r="H206" s="34"/>
+      <c r="H206" s="33"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -20007,11 +20043,11 @@
       <c r="A207" s="1"/>
       <c r="B207" s="11"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="34"/>
-      <c r="E207" s="34"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
-      <c r="H207" s="34"/>
+      <c r="H207" s="33"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -20024,11 +20060,11 @@
       <c r="A208" s="1"/>
       <c r="B208" s="11"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="34"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
-      <c r="H208" s="34"/>
+      <c r="H208" s="33"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -20041,11 +20077,11 @@
       <c r="A209" s="1"/>
       <c r="B209" s="11"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="34"/>
-      <c r="E209" s="34"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
-      <c r="H209" s="34"/>
+      <c r="H209" s="33"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -20058,11 +20094,11 @@
       <c r="A210" s="1"/>
       <c r="B210" s="11"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="34"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33"/>
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
-      <c r="H210" s="34"/>
+      <c r="H210" s="33"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -20075,11 +20111,11 @@
       <c r="A211" s="1"/>
       <c r="B211" s="11"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
-      <c r="H211" s="34"/>
+      <c r="H211" s="33"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -20092,11 +20128,11 @@
       <c r="A212" s="1"/>
       <c r="B212" s="11"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33"/>
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
-      <c r="H212" s="34"/>
+      <c r="H212" s="33"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -20109,11 +20145,11 @@
       <c r="A213" s="1"/>
       <c r="B213" s="11"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33"/>
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
-      <c r="H213" s="34"/>
+      <c r="H213" s="33"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -20126,11 +20162,11 @@
       <c r="A214" s="1"/>
       <c r="B214" s="11"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="34"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
-      <c r="H214" s="34"/>
+      <c r="H214" s="33"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -20143,11 +20179,11 @@
       <c r="A215" s="1"/>
       <c r="B215" s="11"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
-      <c r="H215" s="34"/>
+      <c r="H215" s="33"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -20160,11 +20196,11 @@
       <c r="A216" s="1"/>
       <c r="B216" s="11"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="34"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
-      <c r="H216" s="34"/>
+      <c r="H216" s="33"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -20177,11 +20213,11 @@
       <c r="A217" s="1"/>
       <c r="B217" s="11"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
-      <c r="H217" s="34"/>
+      <c r="H217" s="33"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -20194,11 +20230,11 @@
       <c r="A218" s="1"/>
       <c r="B218" s="11"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="34"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
-      <c r="H218" s="34"/>
+      <c r="H218" s="33"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -20211,11 +20247,11 @@
       <c r="A219" s="1"/>
       <c r="B219" s="11"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
-      <c r="H219" s="34"/>
+      <c r="H219" s="33"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -20228,11 +20264,11 @@
       <c r="A220" s="1"/>
       <c r="B220" s="11"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
-      <c r="H220" s="34"/>
+      <c r="H220" s="33"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -20245,11 +20281,11 @@
       <c r="A221" s="1"/>
       <c r="B221" s="11"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
-      <c r="H221" s="34"/>
+      <c r="H221" s="33"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -20262,11 +20298,11 @@
       <c r="A222" s="1"/>
       <c r="B222" s="11"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
-      <c r="H222" s="34"/>
+      <c r="H222" s="33"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -20279,11 +20315,11 @@
       <c r="A223" s="1"/>
       <c r="B223" s="11"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="34"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
-      <c r="H223" s="34"/>
+      <c r="H223" s="33"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -20296,11 +20332,11 @@
       <c r="A224" s="1"/>
       <c r="B224" s="11"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="34"/>
-      <c r="E224" s="34"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
-      <c r="H224" s="34"/>
+      <c r="H224" s="33"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -20313,11 +20349,11 @@
       <c r="A225" s="1"/>
       <c r="B225" s="11"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="34"/>
-      <c r="E225" s="34"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
-      <c r="H225" s="34"/>
+      <c r="H225" s="33"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -20330,11 +20366,11 @@
       <c r="A226" s="1"/>
       <c r="B226" s="11"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="34"/>
-      <c r="E226" s="34"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
-      <c r="H226" s="34"/>
+      <c r="H226" s="33"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -20347,11 +20383,11 @@
       <c r="A227" s="1"/>
       <c r="B227" s="11"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="34"/>
-      <c r="E227" s="34"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
-      <c r="H227" s="34"/>
+      <c r="H227" s="33"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -20364,11 +20400,11 @@
       <c r="A228" s="1"/>
       <c r="B228" s="11"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="34"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
-      <c r="H228" s="34"/>
+      <c r="H228" s="33"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -20381,11 +20417,11 @@
       <c r="A229" s="1"/>
       <c r="B229" s="11"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="34"/>
-      <c r="E229" s="34"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="33"/>
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
-      <c r="H229" s="34"/>
+      <c r="H229" s="33"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -20398,11 +20434,11 @@
       <c r="A230" s="1"/>
       <c r="B230" s="11"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="34"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
-      <c r="H230" s="34"/>
+      <c r="H230" s="33"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -20415,11 +20451,11 @@
       <c r="A231" s="1"/>
       <c r="B231" s="11"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="34"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
-      <c r="H231" s="34"/>
+      <c r="H231" s="33"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -20432,11 +20468,11 @@
       <c r="A232" s="1"/>
       <c r="B232" s="11"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="34"/>
-      <c r="E232" s="34"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
-      <c r="H232" s="34"/>
+      <c r="H232" s="33"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -20449,11 +20485,11 @@
       <c r="A233" s="1"/>
       <c r="B233" s="11"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="34"/>
-      <c r="E233" s="34"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
-      <c r="H233" s="34"/>
+      <c r="H233" s="33"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -20466,11 +20502,11 @@
       <c r="A234" s="1"/>
       <c r="B234" s="11"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="34"/>
-      <c r="E234" s="34"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="33"/>
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
-      <c r="H234" s="34"/>
+      <c r="H234" s="33"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -20483,11 +20519,11 @@
       <c r="A235" s="1"/>
       <c r="B235" s="11"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
-      <c r="H235" s="34"/>
+      <c r="H235" s="33"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -20500,11 +20536,11 @@
       <c r="A236" s="1"/>
       <c r="B236" s="11"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="34"/>
-      <c r="E236" s="34"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
-      <c r="H236" s="34"/>
+      <c r="H236" s="33"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -20517,11 +20553,11 @@
       <c r="A237" s="1"/>
       <c r="B237" s="11"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="34"/>
-      <c r="E237" s="34"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
-      <c r="H237" s="34"/>
+      <c r="H237" s="33"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -20534,11 +20570,11 @@
       <c r="A238" s="1"/>
       <c r="B238" s="11"/>
       <c r="C238" s="1"/>
-      <c r="D238" s="34"/>
-      <c r="E238" s="34"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
-      <c r="H238" s="34"/>
+      <c r="H238" s="33"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -20551,11 +20587,11 @@
       <c r="A239" s="1"/>
       <c r="B239" s="11"/>
       <c r="C239" s="1"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
-      <c r="H239" s="34"/>
+      <c r="H239" s="33"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -20568,11 +20604,11 @@
       <c r="A240" s="1"/>
       <c r="B240" s="11"/>
       <c r="C240" s="1"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="34"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
-      <c r="H240" s="34"/>
+      <c r="H240" s="33"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -20585,11 +20621,11 @@
       <c r="A241" s="1"/>
       <c r="B241" s="11"/>
       <c r="C241" s="1"/>
-      <c r="D241" s="34"/>
-      <c r="E241" s="34"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="33"/>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
-      <c r="H241" s="34"/>
+      <c r="H241" s="33"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -20602,11 +20638,11 @@
       <c r="A242" s="1"/>
       <c r="B242" s="11"/>
       <c r="C242" s="1"/>
-      <c r="D242" s="34"/>
-      <c r="E242" s="34"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="33"/>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
-      <c r="H242" s="34"/>
+      <c r="H242" s="33"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -20619,11 +20655,11 @@
       <c r="A243" s="1"/>
       <c r="B243" s="11"/>
       <c r="C243" s="1"/>
-      <c r="D243" s="34"/>
-      <c r="E243" s="34"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
-      <c r="H243" s="34"/>
+      <c r="H243" s="33"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -20636,11 +20672,11 @@
       <c r="A244" s="1"/>
       <c r="B244" s="11"/>
       <c r="C244" s="1"/>
-      <c r="D244" s="34"/>
-      <c r="E244" s="34"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
-      <c r="H244" s="34"/>
+      <c r="H244" s="33"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -20653,11 +20689,11 @@
       <c r="A245" s="1"/>
       <c r="B245" s="11"/>
       <c r="C245" s="1"/>
-      <c r="D245" s="34"/>
-      <c r="E245" s="34"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="33"/>
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
-      <c r="H245" s="34"/>
+      <c r="H245" s="33"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -20670,11 +20706,11 @@
       <c r="A246" s="1"/>
       <c r="B246" s="11"/>
       <c r="C246" s="1"/>
-      <c r="D246" s="34"/>
-      <c r="E246" s="34"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
-      <c r="H246" s="34"/>
+      <c r="H246" s="33"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -20687,11 +20723,11 @@
       <c r="A247" s="1"/>
       <c r="B247" s="11"/>
       <c r="C247" s="1"/>
-      <c r="D247" s="34"/>
-      <c r="E247" s="34"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="33"/>
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
-      <c r="H247" s="34"/>
+      <c r="H247" s="33"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -20704,11 +20740,11 @@
       <c r="A248" s="1"/>
       <c r="B248" s="11"/>
       <c r="C248" s="1"/>
-      <c r="D248" s="34"/>
-      <c r="E248" s="34"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
-      <c r="H248" s="34"/>
+      <c r="H248" s="33"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -20721,11 +20757,11 @@
       <c r="A249" s="1"/>
       <c r="B249" s="11"/>
       <c r="C249" s="1"/>
-      <c r="D249" s="34"/>
-      <c r="E249" s="34"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="33"/>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
-      <c r="H249" s="34"/>
+      <c r="H249" s="33"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -20738,11 +20774,11 @@
       <c r="A250" s="1"/>
       <c r="B250" s="11"/>
       <c r="C250" s="1"/>
-      <c r="D250" s="34"/>
-      <c r="E250" s="34"/>
+      <c r="D250" s="33"/>
+      <c r="E250" s="33"/>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
-      <c r="H250" s="34"/>
+      <c r="H250" s="33"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -20755,11 +20791,11 @@
       <c r="A251" s="1"/>
       <c r="B251" s="11"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
+      <c r="D251" s="33"/>
+      <c r="E251" s="33"/>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
-      <c r="H251" s="34"/>
+      <c r="H251" s="33"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -20772,11 +20808,11 @@
       <c r="A252" s="1"/>
       <c r="B252" s="11"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="34"/>
-      <c r="E252" s="34"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="33"/>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
-      <c r="H252" s="34"/>
+      <c r="H252" s="33"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -20789,11 +20825,11 @@
       <c r="A253" s="1"/>
       <c r="B253" s="11"/>
       <c r="C253" s="1"/>
-      <c r="D253" s="34"/>
-      <c r="E253" s="34"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="33"/>
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
-      <c r="H253" s="34"/>
+      <c r="H253" s="33"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -20806,11 +20842,11 @@
       <c r="A254" s="1"/>
       <c r="B254" s="11"/>
       <c r="C254" s="1"/>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33"/>
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
-      <c r="H254" s="34"/>
+      <c r="H254" s="33"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -20823,11 +20859,11 @@
       <c r="A255" s="1"/>
       <c r="B255" s="11"/>
       <c r="C255" s="1"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="33"/>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
-      <c r="H255" s="34"/>
+      <c r="H255" s="33"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -20840,11 +20876,11 @@
       <c r="A256" s="1"/>
       <c r="B256" s="11"/>
       <c r="C256" s="1"/>
-      <c r="D256" s="34"/>
-      <c r="E256" s="34"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="33"/>
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
-      <c r="H256" s="34"/>
+      <c r="H256" s="33"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -20857,11 +20893,11 @@
       <c r="A257" s="1"/>
       <c r="B257" s="11"/>
       <c r="C257" s="1"/>
-      <c r="D257" s="34"/>
-      <c r="E257" s="34"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="33"/>
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
-      <c r="H257" s="34"/>
+      <c r="H257" s="33"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -20874,11 +20910,11 @@
       <c r="A258" s="1"/>
       <c r="B258" s="11"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="34"/>
-      <c r="E258" s="34"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="33"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
-      <c r="H258" s="34"/>
+      <c r="H258" s="33"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -20891,11 +20927,11 @@
       <c r="A259" s="1"/>
       <c r="B259" s="11"/>
       <c r="C259" s="1"/>
-      <c r="D259" s="34"/>
-      <c r="E259" s="34"/>
+      <c r="D259" s="33"/>
+      <c r="E259" s="33"/>
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
-      <c r="H259" s="34"/>
+      <c r="H259" s="33"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -20908,11 +20944,11 @@
       <c r="A260" s="1"/>
       <c r="B260" s="11"/>
       <c r="C260" s="1"/>
-      <c r="D260" s="34"/>
-      <c r="E260" s="34"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
-      <c r="H260" s="34"/>
+      <c r="H260" s="33"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -20925,11 +20961,11 @@
       <c r="A261" s="1"/>
       <c r="B261" s="11"/>
       <c r="C261" s="1"/>
-      <c r="D261" s="34"/>
-      <c r="E261" s="34"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="33"/>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
-      <c r="H261" s="34"/>
+      <c r="H261" s="33"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -20942,11 +20978,11 @@
       <c r="A262" s="1"/>
       <c r="B262" s="11"/>
       <c r="C262" s="1"/>
-      <c r="D262" s="34"/>
-      <c r="E262" s="34"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="33"/>
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
-      <c r="H262" s="34"/>
+      <c r="H262" s="33"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -20959,11 +20995,11 @@
       <c r="A263" s="1"/>
       <c r="B263" s="11"/>
       <c r="C263" s="1"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
-      <c r="H263" s="34"/>
+      <c r="H263" s="33"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -20976,11 +21012,11 @@
       <c r="A264" s="1"/>
       <c r="B264" s="11"/>
       <c r="C264" s="1"/>
-      <c r="D264" s="34"/>
-      <c r="E264" s="34"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="33"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
-      <c r="H264" s="34"/>
+      <c r="H264" s="33"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -20993,11 +21029,11 @@
       <c r="A265" s="1"/>
       <c r="B265" s="11"/>
       <c r="C265" s="1"/>
-      <c r="D265" s="34"/>
-      <c r="E265" s="34"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
-      <c r="H265" s="34"/>
+      <c r="H265" s="33"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -21010,11 +21046,11 @@
       <c r="A266" s="1"/>
       <c r="B266" s="11"/>
       <c r="C266" s="1"/>
-      <c r="D266" s="34"/>
-      <c r="E266" s="34"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
-      <c r="H266" s="34"/>
+      <c r="H266" s="33"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -21027,11 +21063,11 @@
       <c r="A267" s="1"/>
       <c r="B267" s="11"/>
       <c r="C267" s="1"/>
-      <c r="D267" s="34"/>
-      <c r="E267" s="34"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
-      <c r="H267" s="34"/>
+      <c r="H267" s="33"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -21044,11 +21080,11 @@
       <c r="A268" s="1"/>
       <c r="B268" s="11"/>
       <c r="C268" s="1"/>
-      <c r="D268" s="34"/>
-      <c r="E268" s="34"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="33"/>
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
-      <c r="H268" s="34"/>
+      <c r="H268" s="33"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -21061,11 +21097,11 @@
       <c r="A269" s="1"/>
       <c r="B269" s="11"/>
       <c r="C269" s="1"/>
-      <c r="D269" s="34"/>
-      <c r="E269" s="34"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
-      <c r="H269" s="34"/>
+      <c r="H269" s="33"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -21078,11 +21114,11 @@
       <c r="A270" s="1"/>
       <c r="B270" s="11"/>
       <c r="C270" s="1"/>
-      <c r="D270" s="34"/>
-      <c r="E270" s="34"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="33"/>
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
-      <c r="H270" s="34"/>
+      <c r="H270" s="33"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -21095,11 +21131,11 @@
       <c r="A271" s="1"/>
       <c r="B271" s="11"/>
       <c r="C271" s="1"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="34"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="33"/>
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
-      <c r="H271" s="34"/>
+      <c r="H271" s="33"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -21112,11 +21148,11 @@
       <c r="A272" s="1"/>
       <c r="B272" s="11"/>
       <c r="C272" s="1"/>
-      <c r="D272" s="34"/>
-      <c r="E272" s="34"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="33"/>
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
-      <c r="H272" s="34"/>
+      <c r="H272" s="33"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -21129,11 +21165,11 @@
       <c r="A273" s="1"/>
       <c r="B273" s="11"/>
       <c r="C273" s="1"/>
-      <c r="D273" s="34"/>
-      <c r="E273" s="34"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="33"/>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
-      <c r="H273" s="34"/>
+      <c r="H273" s="33"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -21146,11 +21182,11 @@
       <c r="A274" s="1"/>
       <c r="B274" s="11"/>
       <c r="C274" s="1"/>
-      <c r="D274" s="34"/>
-      <c r="E274" s="34"/>
+      <c r="D274" s="33"/>
+      <c r="E274" s="33"/>
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
-      <c r="H274" s="34"/>
+      <c r="H274" s="33"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -21163,11 +21199,11 @@
       <c r="A275" s="1"/>
       <c r="B275" s="11"/>
       <c r="C275" s="1"/>
-      <c r="D275" s="34"/>
-      <c r="E275" s="34"/>
+      <c r="D275" s="33"/>
+      <c r="E275" s="33"/>
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
-      <c r="H275" s="34"/>
+      <c r="H275" s="33"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -21180,11 +21216,11 @@
       <c r="A276" s="1"/>
       <c r="B276" s="11"/>
       <c r="C276" s="1"/>
-      <c r="D276" s="34"/>
-      <c r="E276" s="34"/>
+      <c r="D276" s="33"/>
+      <c r="E276" s="33"/>
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
-      <c r="H276" s="34"/>
+      <c r="H276" s="33"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -21197,11 +21233,11 @@
       <c r="A277" s="1"/>
       <c r="B277" s="11"/>
       <c r="C277" s="1"/>
-      <c r="D277" s="34"/>
-      <c r="E277" s="34"/>
+      <c r="D277" s="33"/>
+      <c r="E277" s="33"/>
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
-      <c r="H277" s="34"/>
+      <c r="H277" s="33"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -21214,11 +21250,11 @@
       <c r="A278" s="1"/>
       <c r="B278" s="11"/>
       <c r="C278" s="1"/>
-      <c r="D278" s="34"/>
-      <c r="E278" s="34"/>
+      <c r="D278" s="33"/>
+      <c r="E278" s="33"/>
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
-      <c r="H278" s="34"/>
+      <c r="H278" s="33"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -21231,11 +21267,11 @@
       <c r="A279" s="1"/>
       <c r="B279" s="11"/>
       <c r="C279" s="1"/>
-      <c r="D279" s="34"/>
-      <c r="E279" s="34"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="33"/>
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
-      <c r="H279" s="34"/>
+      <c r="H279" s="33"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -21248,11 +21284,11 @@
       <c r="A280" s="1"/>
       <c r="B280" s="11"/>
       <c r="C280" s="1"/>
-      <c r="D280" s="34"/>
-      <c r="E280" s="34"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="33"/>
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
-      <c r="H280" s="34"/>
+      <c r="H280" s="33"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -21265,11 +21301,11 @@
       <c r="A281" s="1"/>
       <c r="B281" s="11"/>
       <c r="C281" s="1"/>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
-      <c r="H281" s="34"/>
+      <c r="H281" s="33"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -21282,11 +21318,11 @@
       <c r="A282" s="1"/>
       <c r="B282" s="11"/>
       <c r="C282" s="1"/>
-      <c r="D282" s="34"/>
-      <c r="E282" s="34"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
-      <c r="H282" s="34"/>
+      <c r="H282" s="33"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -21299,11 +21335,11 @@
       <c r="A283" s="1"/>
       <c r="B283" s="11"/>
       <c r="C283" s="1"/>
-      <c r="D283" s="34"/>
-      <c r="E283" s="34"/>
+      <c r="D283" s="33"/>
+      <c r="E283" s="33"/>
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
-      <c r="H283" s="34"/>
+      <c r="H283" s="33"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -21316,11 +21352,11 @@
       <c r="A284" s="1"/>
       <c r="B284" s="11"/>
       <c r="C284" s="1"/>
-      <c r="D284" s="34"/>
-      <c r="E284" s="34"/>
+      <c r="D284" s="33"/>
+      <c r="E284" s="33"/>
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
-      <c r="H284" s="34"/>
+      <c r="H284" s="33"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -21333,11 +21369,11 @@
       <c r="A285" s="1"/>
       <c r="B285" s="11"/>
       <c r="C285" s="1"/>
-      <c r="D285" s="34"/>
-      <c r="E285" s="34"/>
+      <c r="D285" s="33"/>
+      <c r="E285" s="33"/>
       <c r="F285" s="11"/>
       <c r="G285" s="11"/>
-      <c r="H285" s="34"/>
+      <c r="H285" s="33"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -21350,11 +21386,11 @@
       <c r="A286" s="1"/>
       <c r="B286" s="11"/>
       <c r="C286" s="1"/>
-      <c r="D286" s="34"/>
-      <c r="E286" s="34"/>
+      <c r="D286" s="33"/>
+      <c r="E286" s="33"/>
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
-      <c r="H286" s="34"/>
+      <c r="H286" s="33"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -21367,11 +21403,11 @@
       <c r="A287" s="1"/>
       <c r="B287" s="11"/>
       <c r="C287" s="1"/>
-      <c r="D287" s="34"/>
-      <c r="E287" s="34"/>
+      <c r="D287" s="33"/>
+      <c r="E287" s="33"/>
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
-      <c r="H287" s="34"/>
+      <c r="H287" s="33"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -21384,11 +21420,11 @@
       <c r="A288" s="1"/>
       <c r="B288" s="11"/>
       <c r="C288" s="1"/>
-      <c r="D288" s="34"/>
-      <c r="E288" s="34"/>
+      <c r="D288" s="33"/>
+      <c r="E288" s="33"/>
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
-      <c r="H288" s="34"/>
+      <c r="H288" s="33"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -21401,11 +21437,11 @@
       <c r="A289" s="1"/>
       <c r="B289" s="11"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="34"/>
-      <c r="E289" s="34"/>
+      <c r="D289" s="33"/>
+      <c r="E289" s="33"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
-      <c r="H289" s="34"/>
+      <c r="H289" s="33"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -21418,11 +21454,11 @@
       <c r="A290" s="1"/>
       <c r="B290" s="11"/>
       <c r="C290" s="1"/>
-      <c r="D290" s="34"/>
-      <c r="E290" s="34"/>
+      <c r="D290" s="33"/>
+      <c r="E290" s="33"/>
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
-      <c r="H290" s="34"/>
+      <c r="H290" s="33"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -21435,11 +21471,11 @@
       <c r="A291" s="1"/>
       <c r="B291" s="11"/>
       <c r="C291" s="1"/>
-      <c r="D291" s="34"/>
-      <c r="E291" s="34"/>
+      <c r="D291" s="33"/>
+      <c r="E291" s="33"/>
       <c r="F291" s="11"/>
       <c r="G291" s="11"/>
-      <c r="H291" s="34"/>
+      <c r="H291" s="33"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -21452,11 +21488,11 @@
       <c r="A292" s="1"/>
       <c r="B292" s="11"/>
       <c r="C292" s="1"/>
-      <c r="D292" s="34"/>
-      <c r="E292" s="34"/>
+      <c r="D292" s="33"/>
+      <c r="E292" s="33"/>
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
-      <c r="H292" s="34"/>
+      <c r="H292" s="33"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -21469,11 +21505,11 @@
       <c r="A293" s="1"/>
       <c r="B293" s="11"/>
       <c r="C293" s="1"/>
-      <c r="D293" s="34"/>
-      <c r="E293" s="34"/>
+      <c r="D293" s="33"/>
+      <c r="E293" s="33"/>
       <c r="F293" s="11"/>
       <c r="G293" s="11"/>
-      <c r="H293" s="34"/>
+      <c r="H293" s="33"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -21486,11 +21522,11 @@
       <c r="A294" s="1"/>
       <c r="B294" s="11"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="34"/>
-      <c r="E294" s="34"/>
+      <c r="D294" s="33"/>
+      <c r="E294" s="33"/>
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
-      <c r="H294" s="34"/>
+      <c r="H294" s="33"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -21503,11 +21539,11 @@
       <c r="A295" s="1"/>
       <c r="B295" s="11"/>
       <c r="C295" s="1"/>
-      <c r="D295" s="34"/>
-      <c r="E295" s="34"/>
+      <c r="D295" s="33"/>
+      <c r="E295" s="33"/>
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
-      <c r="H295" s="34"/>
+      <c r="H295" s="33"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -21520,11 +21556,11 @@
       <c r="A296" s="1"/>
       <c r="B296" s="11"/>
       <c r="C296" s="1"/>
-      <c r="D296" s="34"/>
-      <c r="E296" s="34"/>
+      <c r="D296" s="33"/>
+      <c r="E296" s="33"/>
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
-      <c r="H296" s="34"/>
+      <c r="H296" s="33"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -21537,11 +21573,11 @@
       <c r="A297" s="1"/>
       <c r="B297" s="11"/>
       <c r="C297" s="1"/>
-      <c r="D297" s="34"/>
-      <c r="E297" s="34"/>
+      <c r="D297" s="33"/>
+      <c r="E297" s="33"/>
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
-      <c r="H297" s="34"/>
+      <c r="H297" s="33"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -21554,11 +21590,11 @@
       <c r="A298" s="1"/>
       <c r="B298" s="11"/>
       <c r="C298" s="1"/>
-      <c r="D298" s="34"/>
-      <c r="E298" s="34"/>
+      <c r="D298" s="33"/>
+      <c r="E298" s="33"/>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
-      <c r="H298" s="34"/>
+      <c r="H298" s="33"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -21571,11 +21607,11 @@
       <c r="A299" s="1"/>
       <c r="B299" s="11"/>
       <c r="C299" s="1"/>
-      <c r="D299" s="34"/>
-      <c r="E299" s="34"/>
+      <c r="D299" s="33"/>
+      <c r="E299" s="33"/>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
-      <c r="H299" s="34"/>
+      <c r="H299" s="33"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -21588,11 +21624,11 @@
       <c r="A300" s="1"/>
       <c r="B300" s="11"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="34"/>
-      <c r="E300" s="34"/>
+      <c r="D300" s="33"/>
+      <c r="E300" s="33"/>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
-      <c r="H300" s="34"/>
+      <c r="H300" s="33"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -21605,11 +21641,11 @@
       <c r="A301" s="1"/>
       <c r="B301" s="11"/>
       <c r="C301" s="1"/>
-      <c r="D301" s="34"/>
-      <c r="E301" s="34"/>
+      <c r="D301" s="33"/>
+      <c r="E301" s="33"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
-      <c r="H301" s="34"/>
+      <c r="H301" s="33"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
@@ -21622,11 +21658,11 @@
       <c r="A302" s="1"/>
       <c r="B302" s="11"/>
       <c r="C302" s="1"/>
-      <c r="D302" s="34"/>
-      <c r="E302" s="34"/>
+      <c r="D302" s="33"/>
+      <c r="E302" s="33"/>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
-      <c r="H302" s="34"/>
+      <c r="H302" s="33"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
@@ -21646,10 +21682,10 @@
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5 O6 O9 O10 O11 O12 O13 O7:O8 O14:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5 O6 O9 O10 O11 O12 O13 O14 O7:O8 O15:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C1048576">
       <formula1>"SaaS,SaaS+微信,单店库存,供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21687,19 +21723,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -21707,85 +21743,85 @@
         <v>19</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="19">
         <v>43229</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="21"/>
       <c r="B3" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="19">
         <v>43229</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="21"/>
       <c r="B4" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="19">
         <v>43229</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="21"/>
       <c r="B5" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="19">
         <v>43241</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -22601,16 +22637,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《实施上线数据统计表》-经旺平.xlsx
+++ b/周数据/《实施上线数据统计表》-经旺平.xlsx
@@ -308,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -449,6 +449,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -471,15 +478,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +504,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,17 +531,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,39 +546,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,9 +570,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +673,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,61 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,67 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,21 +1329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1368,11 +1353,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,6 +1379,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,10 +1410,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1422,133 +1422,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -16135,7 +16135,7 @@
   <sheetPr/>
   <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《实施上线数据统计表》-经旺平.xlsx
+++ b/周数据/《实施上线数据统计表》-经旺平.xlsx
@@ -317,10 +317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -450,14 +450,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,7 +488,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,47 +554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,42 +577,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,7 +674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +692,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,25 +740,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,91 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,6 +1306,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1330,36 +1345,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1380,6 +1365,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1394,15 +1403,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1411,10 +1411,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1423,133 +1423,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1660,6 +1660,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1682,9 +1685,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16142,8 +16142,8 @@
   <sheetPr/>
   <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -16211,7 +16211,9 @@
     </row>
     <row r="2" s="28" customFormat="1" ht="14.25" spans="1:17">
       <c r="A2" s="21"/>
-      <c r="B2" s="32"/>
+      <c r="B2" s="32">
+        <v>43234</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -16430,9 +16432,7 @@
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="35">
-        <v>43234</v>
-      </c>
+      <c r="B7" s="35"/>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="21"/>
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>43235</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -16520,7 +16520,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8"/>
-      <c r="B9" s="35">
+      <c r="B9" s="36">
         <v>43236</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -16567,7 +16567,7 @@
       <c r="A10" s="11">
         <v>21</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="36">
         <v>43241</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -16614,7 +16614,7 @@
       <c r="A11" s="21">
         <v>22</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="36">
         <v>43244</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -16659,7 +16659,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="21"/>
-      <c r="B12" s="35">
+      <c r="B12" s="36">
         <v>43244</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -16674,10 +16674,10 @@
       <c r="F12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="37">
         <v>76173857</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="38" t="s">
         <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -16704,7 +16704,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7"/>
-      <c r="B13" s="35">
+      <c r="B13" s="36">
         <v>43248</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -16719,7 +16719,7 @@
       <c r="F13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="37">
         <v>76175399</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -16751,7 +16751,7 @@
       <c r="A14" s="11">
         <v>23</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="36">
         <v>43256</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -16766,10 +16766,10 @@
       <c r="F14" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="37">
         <v>76178939</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -16798,7 +16798,7 @@
       <c r="A15" s="17">
         <v>24</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="40">
         <v>43259</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -16813,10 +16813,10 @@
       <c r="F15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="37">
         <v>76169196</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="39" t="s">
         <v>69</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -16843,7 +16843,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="8"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
@@ -16856,10 +16856,10 @@
       <c r="F16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="37">
         <v>76176537</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="42" t="s">
         <v>70</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -16888,7 +16888,7 @@
       <c r="A17" s="11">
         <v>25</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="36">
         <v>43266</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -16903,10 +16903,10 @@
       <c r="F17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="37">
         <v>76181361</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="39" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -16933,7 +16933,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="42">
+      <c r="B18" s="43">
         <v>43280</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -16948,10 +16948,10 @@
       <c r="F18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="37">
         <v>76188067</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="39" t="s">
         <v>72</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -16978,7 +16978,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
@@ -16991,10 +16991,10 @@
       <c r="F19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="37">
         <v>76188328</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="39" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -21836,12 +21836,12 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B2:B7"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5 O6 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O7:O8 O20:O1048576">
